--- a/data/trans_dic/P04D$notiene-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 6,69</t>
+          <t>3,9; 6,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,06; 24,94</t>
+          <t>18,81; 25,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 16,82</t>
+          <t>10,45; 16,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,0</t>
+          <t>4,49; 7,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 23,35</t>
+          <t>18,32; 23,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 14,15</t>
+          <t>10,44; 13,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,62; 6,51</t>
+          <t>4,63; 6,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,16; 23,29</t>
+          <t>19,41; 23,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 14,31</t>
+          <t>10,92; 14,16</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,06</t>
+          <t>3,2; 5,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 17,12</t>
+          <t>13,58; 17,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,19</t>
+          <t>7,33; 12,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,35</t>
+          <t>3,29; 5,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,16; 14,13</t>
+          <t>10,99; 14,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 22,08</t>
+          <t>8,96; 22,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,5; 4,8</t>
+          <t>3,47; 4,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,85; 15,05</t>
+          <t>12,81; 15,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 17,07</t>
+          <t>9,2; 16,44</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,4</t>
+          <t>1,26; 4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,68; 12,15</t>
+          <t>6,5; 12,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,92</t>
+          <t>6,64; 11,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,31</t>
+          <t>1,09; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,4</t>
+          <t>8,07; 13,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,94</t>
+          <t>8,51; 13,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,62</t>
+          <t>1,44; 3,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,58</t>
+          <t>7,93; 11,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,25; 11,44</t>
+          <t>8,13; 11,69</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,02</t>
+          <t>3,53; 4,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 17,12</t>
+          <t>14,43; 17,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,95</t>
+          <t>8,11; 11,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,28</t>
+          <t>3,81; 5,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 15,67</t>
+          <t>13,27; 15,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 18,63</t>
+          <t>9,92; 18,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 4,86</t>
+          <t>3,87; 4,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 15,98</t>
+          <t>14,27; 16,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,31</t>
+          <t>9,89; 15,06</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene calefacción ni aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50331</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>164978</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>68152</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75781</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>206778</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>91061</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126113</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>371755</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>159213</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37925; 66155</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>141918; 188644</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53586; 85841</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60048; 94800</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>182182; 234599</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>78804; 105317</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>106861; 150187</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>339471; 408032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>138435; 179563</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>79885</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>318894</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>233623</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>73407</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>246848</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>282914</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>153292</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>565743</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>516537</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>62755; 99214</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>282042; 354716</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167520; 280858</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57731; 92915</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>218564; 278956</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>200140; 501311</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>128952; 180419</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>520659; 610597</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>415698; 743066</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11899</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>48650</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>57579</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10387</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>57798</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69265</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>22286</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>106448</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>126844</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6040; 22101</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35566; 65622</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>42905; 75576</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5017; 19401</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44319; 74036</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56027; 86144</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13547; 34434</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86882; 125932</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>106061; 152597</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>977</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>142116</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>532522</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>359354</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>159575</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>511424</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>443240</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>301691</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1043946</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>802593</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>120450; 169175</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>487341; 577691</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>279587; 410386</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>135233; 187003</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>468625; 557047</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>361612; 688839</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>269765; 337085</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>986121; 1110421</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>701246; 1068259</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>